--- a/iteraciones/iteración2/resources/Planning.xlsx
+++ b/iteraciones/iteración2/resources/Planning.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27706"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_AB4C40E287652C1259423CC5DE949F5993128F55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7989DE90-01CE-4144-9A6C-4608B22A7CF6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteracion2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,35 +30,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Maxi</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Santi Alfonso</t>
+  </si>
+  <si>
+    <t>Santi Lopez</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Estimación</t>
+  </si>
   <si>
     <t>Story Points (1, 2, 3, 5, 8, 13)</t>
   </si>
   <si>
-    <t>Tarea</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Maxi</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Santi Alfonso</t>
-  </si>
-  <si>
-    <t>Santi Lopez</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
     <t>Crear una penca</t>
   </si>
   <si>
@@ -72,7 +74,7 @@
     <t>Ver ranking de la penca</t>
   </si>
   <si>
-    <t>Envìo de invitaciones para sumarse a la penca</t>
+    <t>Envío de invitaciones para sumarse a la penca</t>
   </si>
   <si>
     <t xml:space="preserve">Ver partidos del día </t>
@@ -84,8 +86,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,12 +96,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -125,21 +132,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -162,10 +154,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -177,16 +169,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -195,16 +222,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,9 +251,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -263,9 +291,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,7 +328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,7 +363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -508,238 +536,295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="6">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="6">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+      <c r="E5" s="7">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7">
+        <v>8</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="6">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
+      <c r="B8" s="7">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
